--- a/data/5_results/with_cot/result_with_cot_1.xlsx
+++ b/data/5_results/with_cot/result_with_cot_1.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,13 +435,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="34" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="4" customWidth="1" min="9" max="9"/>
     <col width="4" customWidth="1" min="10" max="10"/>
@@ -505,23 +505,35 @@
           <t>upper wire size</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3943661971830986</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19</v>
-      </c>
-      <c r="G2" t="n">
-        <v>43.18181818181818</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>14</v>
@@ -539,23 +551,35 @@
           <t>upper wire material</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4411764705882353</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4054054054054054</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3409090909090909</v>
-      </c>
-      <c r="F3" t="n">
-        <v>19</v>
-      </c>
-      <c r="G3" t="n">
-        <v>43.18181818181818</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>19,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>15</v>
@@ -573,23 +597,35 @@
           <t>lower wire size</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.3421052631578947</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4193548387096774</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3768115942028986</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2954545454545455</v>
-      </c>
-      <c r="F4" t="n">
-        <v>19</v>
-      </c>
-      <c r="G4" t="n">
-        <v>43.18181818181818</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0,30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>19,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>13</v>
@@ -607,23 +643,35 @@
           <t>lower wire material</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4242424242424243</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3835616438356164</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40.90909090909091</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>18,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>14</v>
@@ -641,23 +689,35 @@
           <t>changed upper arch wire</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="F6" t="n">
-        <v>18</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40.90909090909091</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>18,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>6</v>
@@ -675,23 +735,35 @@
           <t>changed lower arch wire</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.1612903225806452</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1136363636363636</v>
-      </c>
-      <c r="F7" t="n">
-        <v>18</v>
-      </c>
-      <c r="G7" t="n">
-        <v>40.90909090909091</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>18,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>5</v>
@@ -709,23 +781,35 @@
           <t>ligature method</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.90909090909091</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -743,23 +827,35 @@
           <t>oral hygiene</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-      <c r="G9" t="n">
-        <v>20.45454545454546</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0,10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0,20</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -777,23 +873,35 @@
           <t>elastic pattern left</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.131578947368421</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1136363636363636</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="n">
-        <v>20.45454545454546</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0,20</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>5</v>
@@ -811,23 +919,35 @@
           <t>right canine class</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02439024390243903</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.02597402597402598</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" t="n">
-        <v>20.45454545454546</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0,20</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -845,23 +965,35 @@
           <t>left canine class</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02439024390243903</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.02597402597402598</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20.45454545454546</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0,20</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -879,23 +1011,35 @@
           <t>right molar class</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-      <c r="G13" t="n">
-        <v>18.18181818181818</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -913,23 +1057,35 @@
           <t>left molar class</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>18.18181818181818</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
       </c>
       <c r="H14" t="n">
         <v>2</v>
@@ -947,23 +1103,35 @@
           <t>class ii elastic</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" t="n">
-        <v>22.72727272727273</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
       </c>
       <c r="H15" t="n">
         <v>8</v>
@@ -981,23 +1149,35 @@
           <t>elastic pattern right</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0821917808219178</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>18.18181818181818</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -1015,23 +1195,35 @@
           <t>compliance</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.1707317073170732</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.1971830985915493</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.1590909090909091</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-      <c r="G17" t="n">
-        <v>22.72727272727273</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0,20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
       </c>
       <c r="H17" t="n">
         <v>7</v>
@@ -1049,23 +1241,35 @@
           <t>overjet (mm)</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>15.90909090909091</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1083,23 +1287,35 @@
           <t>elastic type left</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.1219512195121951</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.1298701298701299</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1136363636363636</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-      <c r="G19" t="n">
-        <v>18.18181818181818</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
       </c>
       <c r="H19" t="n">
         <v>5</v>
@@ -1117,23 +1333,35 @@
           <t>elastic type right</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
-      </c>
-      <c r="G20" t="n">
-        <v>13.63636363636363</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
       </c>
       <c r="H20" t="n">
         <v>3</v>
@@ -1151,23 +1379,35 @@
           <t>overbite (mm)</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0.02439024390243903</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" t="n">
-        <v>9.090909090909092</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1185,23 +1425,35 @@
           <t>debonded bracket</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>11.36363636363636</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1219,23 +1471,35 @@
           <t>lower retainer</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.272727272727273</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1253,23 +1517,35 @@
           <t>emergency type</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
-      <c r="G24" t="n">
-        <v>9.090909090909092</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1287,23 +1563,35 @@
           <t>upper retainer</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1321,23 +1609,35 @@
           <t>space closure sliding mechanics</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" t="n">
-        <v>11.36363636363636</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1355,23 +1655,35 @@
           <t>photos taken</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" t="n">
-        <v>11.36363636363636</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1389,23 +1701,35 @@
           <t>upper arch bends</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.02298850574712644</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4.545454545454546</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1423,23 +1747,35 @@
           <t>class i elastic</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
-      </c>
-      <c r="G29" t="n">
-        <v>9.090909090909092</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1457,23 +1793,35 @@
           <t>class iii elastic</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.02531645569620253</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>4.545454545454546</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1488,270 +1836,372 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>lower arch bends</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5</v>
-      </c>
-      <c r="G31" t="n">
-        <v>11.36363636363636</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4</v>
+          <t>Appliance</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>retainer check</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.02298850574712644</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.272727272727273</v>
+          <t>lower arch bends</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>xrays taken</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
-      </c>
-      <c r="G33" t="n">
-        <v>6.818181818181817</v>
+          <t>retainer check</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>intra oral scanning taken</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F34" t="n">
+          <t>xrays taken</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>3</v>
-      </c>
-      <c r="G34" t="n">
-        <v>6.818181818181817</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>emergency</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.02439024390243903</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
-      </c>
-      <c r="G35" t="n">
-        <v>9.090909090909092</v>
+          <t>intra oral scanning taken</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lower arch reverse curve of spee</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+          <t>emergency</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="G36" t="n">
-        <v>2.272727272727273</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bracket or band repositioning</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>4.545454545454546</v>
+          <t>lower arch reverse curve of spee</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>open spring</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+          <t>bracket or band repositioning</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>2</v>
@@ -1760,26 +2210,38 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>upper bonding</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3</v>
-      </c>
-      <c r="G39" t="n">
-        <v>6.818181818181817</v>
+          <t>open spring</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1788,140 +2250,188 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ipr</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.02298850574712644</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>4.545454545454546</v>
+          <t>upper bonding</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>re-tie appointment</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
+          <t>ipr</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>lower bonding</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.02439024390243903</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="F42" t="n">
-        <v>4</v>
-      </c>
-      <c r="G42" t="n">
-        <v>9.090909090909092</v>
+          <t>re-tie appointment</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>posterior bite turbos</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
-      </c>
-      <c r="G43" t="n">
-        <v>6.818181818181817</v>
+          <t>lower bonding</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
@@ -1930,128 +2440,182 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>cross elastic</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>4.545454545454546</v>
+          <t>posterior bite turbos</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>upper debond</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2.272727272727273</v>
+          <t>cross elastic</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>lower debond</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2.272727272727273</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1</v>
+          <t>Upper Arch Accentuated Curve of Spee</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>prescription and bracket slot</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
-      </c>
-      <c r="G47" t="n">
-        <v>9.090909090909092</v>
+          <t>upper debond</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2060,32 +2624,44 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>tmj symptoms</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2.272727272727273</v>
+          <t>lower debond</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2100,94 +2676,136 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>enameloplasty</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2</v>
+          <t>TADs</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>referral</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
+          <t>prescription and bracket slot</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>extractions</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2.272727272727273</v>
+          <t>tmj symptoms</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2202,26 +2820,38 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>upper banding</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2.272727272727273</v>
+          <t>enameloplasty</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,75 +2860,1485 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>lower active movement</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
+          <t>referral</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>2</v>
       </c>
-      <c r="G53" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>Unilateral Posterior Crossbite</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>extractions</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TPA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Space closure loop mechanics</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>upper banding</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Relapse</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Upper Active movement</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>lower active movement</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Closed Spring</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Lower Banding</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Patient ID.1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NiTi Closing Spring</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>anterior bite turbos</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>1</v>
       </c>
-      <c r="G54" t="n">
-        <v>2.272727272727273</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1</v>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TADs.1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Upper Arch Reverse Curve of Spee</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Maxillary Expander</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>LLHA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Anterior Crossbite</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Debonded Bracket/Band</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Lower Arch Curve of Spee</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Intrusion Arch</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Bilateral Posterior Crossbite</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Lower Arch Accentuated Curve of Spee</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Active Traction</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Active Tooth Traction</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Mandibular Advancement Appliance</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Teeth Pain</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Arch Coordination</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +4361,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -2349,10 +4389,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05730875325706935</v>
+        <v>0.05730875325706937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1424828053342552</v>
+        <v>0.1424828053342551</v>
       </c>
     </row>
     <row r="3">
@@ -2362,7 +4402,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0681350280494528</v>
+        <v>0.06813502804945283</v>
       </c>
       <c r="C3" t="n">
         <v>0.1723505186688385</v>
@@ -2388,7 +4428,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05060034305317324</v>
+        <v>0.05060034305317329</v>
       </c>
       <c r="C5" t="n">
         <v>0.1241666666666667</v>
@@ -2468,7 +4508,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">

--- a/data/5_results/with_cot/result_with_cot_1.xlsx
+++ b/data/5_results/with_cot/result_with_cot_1.xlsx
@@ -436,11 +436,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="4" customWidth="1" min="9" max="9"/>
@@ -507,27 +507,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,538</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,737</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,622</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,980</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -553,27 +553,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,682</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,954</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -599,27 +599,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,684</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,578</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,30</t>
+          <t>0,959</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -645,27 +645,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,560</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,778</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,651</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>18,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -691,27 +691,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,240</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,279</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,973</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>18,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -737,27 +737,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,278</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,233</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>18,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -783,27 +783,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,848</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -829,27 +829,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,136</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,194</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,960</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -875,27 +875,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,385</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,940</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -921,27 +921,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,898</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -967,27 +967,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,860</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1013,27 +1013,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,922</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1059,27 +1059,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,878</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1105,27 +1105,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,615</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,772</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1151,27 +1151,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,231</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,953</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1197,27 +1197,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,452</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,923</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1243,27 +1243,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,768</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1289,27 +1289,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,385</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,476</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,542</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1335,27 +1335,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,231</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,316</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,581</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1381,27 +1381,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,351</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1427,27 +1427,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1473,27 +1473,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,323</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1519,27 +1519,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,920</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1565,27 +1565,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1611,27 +1611,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1657,27 +1657,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1703,27 +1703,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1749,27 +1749,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1795,27 +1795,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,753</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1893,27 +1893,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1939,27 +1939,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1985,27 +1985,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2031,27 +2031,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2077,27 +2077,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2123,27 +2123,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2169,27 +2169,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2215,27 +2215,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2261,27 +2261,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2307,27 +2307,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2353,27 +2353,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2399,27 +2399,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2445,27 +2445,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2491,27 +2491,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2589,27 +2589,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2635,27 +2635,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2733,27 +2733,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2779,27 +2779,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2825,27 +2825,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2871,27 +2871,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2969,27 +2969,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3119,27 +3119,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3269,27 +3269,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3523,27 +3523,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4352,7 +4352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4360,78 +4360,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Metric</t>
+          <t>Mode</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Simple Average</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Weighted Average</t>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>W F1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W SEM</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.05730875325706937</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1424828053342551</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.06813502804945283</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1723505186688385</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>F1 Score</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.06209200107174977</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1557705413555438</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Semantic Similarity</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.05060034305317329</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1241666666666667</v>
+          <t>with_cot</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0,208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0,530</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0,338</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0,790</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/5_results/with_cot/result_with_cot_1.xlsx
+++ b/data/5_results/with_cot/result_with_cot_1.xlsx
@@ -507,42 +507,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,538</t>
+          <t>0,515</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,737</t>
+          <t>0,654</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,622</t>
+          <t>0,576</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,980</t>
+          <t>0,985</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>26,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -553,42 +553,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,515</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,789</t>
+          <t>0,680</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,682</t>
+          <t>0,586</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,954</t>
+          <t>0,969</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>25,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -599,42 +599,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,684</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,578</t>
+          <t>0,526</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,959</t>
+          <t>0,948</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>24,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -645,42 +645,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,560</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,778</t>
+          <t>0,682</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,651</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,935</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -691,42 +691,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,240</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,320</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,279</t>
+          <t>0,271</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,973</t>
+          <t>0,971</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>18,000</t>
+          <t>25,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -737,42 +737,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,206</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,278</t>
+          <t>0,318</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,233</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,985</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>18,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -798,27 +798,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,848</t>
+          <t>0,787</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,20</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -829,42 +829,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,136</t>
+          <t>0,304</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,467</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,194</t>
+          <t>0,368</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,960</t>
+          <t>0,979</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -875,22 +875,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,385</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,276</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,940</t>
+          <t>0,926</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16</v>
+      </c>
+      <c r="J10" t="n">
         <v>5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -921,42 +921,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,898</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -967,42 +967,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,860</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1013,42 +1013,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,922</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1059,42 +1059,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,878</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1105,42 +1105,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,261</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,800</t>
+          <t>0,462</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,615</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,772</t>
+          <t>0,833</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,20</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1151,42 +1151,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,231</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,375</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,953</t>
+          <t>0,965</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1197,42 +1197,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,700</t>
+          <t>0,385</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,452</t>
+          <t>0,303</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,923</t>
+          <t>0,990</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,20</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1258,27 +1258,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,768</t>
+          <t>0,906</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1289,22 +1289,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,385</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,476</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,542</t>
+          <t>0,538</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1314,17 +1314,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1335,42 +1335,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,231</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,316</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,581</t>
+          <t>0,632</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>7</v>
+      </c>
+      <c r="J20" t="n">
         <v>10</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1381,42 +1381,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,351</t>
+          <t>0,633</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1427,42 +1427,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,909</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1488,27 +1488,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,323</t>
+          <t>0,261</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1534,27 +1534,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,920</t>
+          <t>0,817</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1580,27 +1580,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,246</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1640,13 +1640,13 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1672,27 +1672,27 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1703,27 +1703,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1749,42 +1749,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,897</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
         <v>11</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1795,42 +1795,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,053</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>0,087</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,753</t>
+          <t>0,402</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H30" t="n">
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1893,36 +1893,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1939,42 +1939,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>0,600</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0,600</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0,667</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0,500</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2005,12 +2005,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -2077,17 +2077,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2097,22 +2097,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2189,22 +2189,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -2230,27 +2230,27 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2261,22 +2261,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2286,17 +2286,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2307,36 +2307,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0,500</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0,667</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0,500</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2,000</t>
-        </is>
-      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2368,27 +2368,27 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
         <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2404,12 +2404,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2424,17 +2424,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2470,14 +2470,14 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
         <v>3</v>
@@ -2506,12 +2506,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,850</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2526,7 +2526,7 @@
         <v>8</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2753,12 +2753,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2820,93 +2820,105 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>enameloplasty</t>
+          <t>Enameloplasty</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>referral</t>
+          <t>Referral</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2964,47 +2976,53 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>extractions</t>
+          <t>Extractions</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -3062,53 +3080,47 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Space closure loop mechanics</t>
+          <t>space closure loop mechanics</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3160,53 +3172,47 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Relapse</t>
+          <t>relapse</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3289,7 +3295,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3304,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -3518,47 +3524,53 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>anterior bite turbos</t>
+          <t>Anterior Bite Turbos</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3772,53 +3784,47 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Anterior Crossbite</t>
+          <t>anterior crossbite</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4402,22 +4408,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,208</t>
+          <t>0,157</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,530</t>
+          <t>0,560</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,338</t>
+          <t>0,278</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,790</t>
+          <t>0,743</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4491,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -4495,7 +4501,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">

--- a/data/5_results/with_cot/result_with_cot_1.xlsx
+++ b/data/5_results/with_cot/result_with_cot_1.xlsx
@@ -507,42 +507,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,515</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,654</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,576</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,985</t>
+          <t>0,932</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>26,000</t>
+          <t>25,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -553,42 +553,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,515</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,680</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,586</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,969</t>
+          <t>0,903</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>25,000</t>
+          <t>24,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -599,42 +599,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,526</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,948</t>
+          <t>0,939</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>24,000</t>
+          <t>25,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -645,42 +645,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,682</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,935</t>
+          <t>0,812</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>22,000</t>
+          <t>25,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -691,42 +691,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,320</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,271</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,971</t>
+          <t>0,781</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>25,000</t>
+          <t>28,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -737,42 +737,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,206</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,318</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,985</t>
+          <t>0,753</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>22,000</t>
+          <t>28,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -798,27 +798,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,787</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -829,42 +829,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,304</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,467</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,368</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,979</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>15,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -875,42 +875,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,276</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,926</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -921,42 +921,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,100</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,100</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -967,42 +967,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,100</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,100</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1038,17 +1038,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1084,17 +1084,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,261</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,462</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,833</t>
+          <t>0,295</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1130,17 +1130,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1151,42 +1151,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,300</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,965</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1197,88 +1197,94 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,385</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,303</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,990</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>13,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>overjet (mm)</t>
+          <t>Overjet (mm)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,906</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1289,42 +1295,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,133</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,538</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1350,27 +1356,27 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,632</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1396,27 +1402,27 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,633</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1427,42 +1433,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,364</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,909</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>12,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1488,27 +1494,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,261</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1534,27 +1540,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,817</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1580,27 +1586,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,246</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1611,17 +1617,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1636,17 +1642,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1677,12 +1683,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1692,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1723,12 +1729,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1738,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1749,42 +1755,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0,897</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1795,94 +1801,88 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,053</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,087</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,402</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Appliance</t>
+          <t>appliance</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1939,42 +1939,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>3</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2000,27 +2000,27 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2031,42 +2031,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0,333</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0,500</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0,333</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3,000</t>
-        </is>
-      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2092,27 +2092,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2189,22 +2189,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -2230,17 +2230,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2261,88 +2261,94 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ipr</t>
+          <t>IPR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2368,27 +2374,27 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2399,22 +2405,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2428,13 +2434,13 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2460,27 +2466,27 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2506,79 +2512,73 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,850</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Upper Arch Accentuated Curve of Spee</t>
+          <t>upper arch accentuated curve of spee</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2753,12 +2753,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2814,59 +2814,53 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Enameloplasty</t>
+          <t>enameloplasty</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2976,53 +2970,47 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Extractions</t>
+          <t>extractions</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3080,289 +3068,301 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>space closure loop mechanics</t>
+          <t>Space closure loop mechanics</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>upper banding</t>
+          <t>Upper Banding</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>relapse</t>
+          <t>Relapse</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Upper Active movement</t>
+          <t>upper active movement</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>lower active movement</t>
+          <t>Lower Active movement</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Closed Spring</t>
+          <t>closed spring</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -3524,53 +3524,47 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Anterior Bite Turbos</t>
+          <t>anterior bite turbos</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -3784,47 +3778,53 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>anterior crossbite</t>
+          <t>Anterior Crossbite</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -4408,22 +4408,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,157</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,560</t>
+          <t>0,181</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,278</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,743</t>
+          <t>0,388</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -4501,7 +4501,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
